--- a/results/enge_y_total.xlsx
+++ b/results/enge_y_total.xlsx
@@ -1090,13 +1090,13 @@
         <v>2004</v>
       </c>
       <c r="C13" t="n">
-        <v>229966</v>
+        <v>230361</v>
       </c>
       <c r="D13" t="n">
-        <v>52562</v>
+        <v>52429.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1.546499267673781</v>
+        <v>1.539949830059086</v>
       </c>
       <c r="F13" t="n">
         <v>91866</v>
@@ -1113,25 +1113,25 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>39304</v>
+        <v>39436.7</v>
       </c>
       <c r="K13" t="n">
-        <v>1695494</v>
+        <v>1695099</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6458977956801677</v>
+        <v>0.6480785059764926</v>
       </c>
       <c r="M13" t="n">
-        <v>1.140009534292186</v>
+        <v>1.13974394575808</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5665722752759216</v>
+        <v>0.5686176341524102</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5721594496331613</v>
+        <v>0.5707149543900899</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1194343169943806</v>
+        <v>0.1196394627777258</v>
       </c>
     </row>
     <row r="14">
